--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H2">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I2">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J2">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.67123081261189</v>
+        <v>13.69437566666667</v>
       </c>
       <c r="N2">
-        <v>3.67123081261189</v>
+        <v>41.083127</v>
       </c>
       <c r="O2">
-        <v>0.744618494514196</v>
+        <v>0.6464706592402053</v>
       </c>
       <c r="P2">
-        <v>0.744618494514196</v>
+        <v>0.6464706592402053</v>
       </c>
       <c r="Q2">
-        <v>67.75257034986302</v>
+        <v>688.1085430125195</v>
       </c>
       <c r="R2">
-        <v>67.75257034986302</v>
+        <v>6192.976887112676</v>
       </c>
       <c r="S2">
-        <v>0.04049406977769576</v>
+        <v>0.08369236771437133</v>
       </c>
       <c r="T2">
-        <v>0.04049406977769576</v>
+        <v>0.08369236771437134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H3">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I3">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J3">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.25912055477803</v>
+        <v>2.346919</v>
       </c>
       <c r="N3">
-        <v>1.25912055477803</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O3">
-        <v>0.255381505485804</v>
+        <v>0.1107910510156661</v>
       </c>
       <c r="P3">
-        <v>0.255381505485804</v>
+        <v>0.1107910510156661</v>
       </c>
       <c r="Q3">
-        <v>23.23707179442209</v>
+        <v>117.9268812954573</v>
       </c>
       <c r="R3">
-        <v>23.23707179442209</v>
+        <v>1061.341931659116</v>
       </c>
       <c r="S3">
-        <v>0.01388823481992896</v>
+        <v>0.01434305679388849</v>
       </c>
       <c r="T3">
-        <v>0.01388823481992896</v>
+        <v>0.0143430567938885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.975328138776</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H4">
-        <v>150.975328138776</v>
+        <v>150.742588</v>
       </c>
       <c r="I4">
-        <v>0.4448867835521751</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J4">
-        <v>0.4448867835521751</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.67123081261189</v>
+        <v>3.811587333333333</v>
       </c>
       <c r="N4">
-        <v>3.67123081261189</v>
+        <v>11.434762</v>
       </c>
       <c r="O4">
-        <v>0.744618494514196</v>
+        <v>0.17993367759944</v>
       </c>
       <c r="P4">
-        <v>0.744618494514196</v>
+        <v>0.17993367759944</v>
       </c>
       <c r="Q4">
-        <v>554.2652766072654</v>
+        <v>191.5228463382284</v>
       </c>
       <c r="R4">
-        <v>554.2652766072654</v>
+        <v>1723.705617044056</v>
       </c>
       <c r="S4">
-        <v>0.3312709269978836</v>
+        <v>0.02329429076881903</v>
       </c>
       <c r="T4">
-        <v>0.3312709269978836</v>
+        <v>0.02329429076881904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.975328138776</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H5">
-        <v>150.975328138776</v>
+        <v>150.742588</v>
       </c>
       <c r="I5">
-        <v>0.4448867835521751</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J5">
-        <v>0.4448867835521751</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.25912055477803</v>
+        <v>1.330408333333333</v>
       </c>
       <c r="N5">
-        <v>1.25912055477803</v>
+        <v>3.991225</v>
       </c>
       <c r="O5">
-        <v>0.255381505485804</v>
+        <v>0.06280461214468869</v>
       </c>
       <c r="P5">
-        <v>0.255381505485804</v>
+        <v>0.06280461214468869</v>
       </c>
       <c r="Q5">
-        <v>190.0961389238908</v>
+        <v>66.84973175447776</v>
       </c>
       <c r="R5">
-        <v>190.0961389238908</v>
+        <v>601.6475857902999</v>
       </c>
       <c r="S5">
-        <v>0.1136158565542915</v>
+        <v>0.008130711918077502</v>
       </c>
       <c r="T5">
-        <v>0.1136158565542915</v>
+        <v>0.008130711918077503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.4777355430884</v>
+        <v>151.42276</v>
       </c>
       <c r="H6">
-        <v>71.4777355430884</v>
+        <v>454.26828</v>
       </c>
       <c r="I6">
-        <v>0.2106271286400358</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J6">
-        <v>0.2106271286400358</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.67123081261189</v>
+        <v>13.69437566666667</v>
       </c>
       <c r="N6">
-        <v>3.67123081261189</v>
+        <v>41.083127</v>
       </c>
       <c r="O6">
-        <v>0.744618494514196</v>
+        <v>0.6464706592402053</v>
       </c>
       <c r="P6">
-        <v>0.744618494514196</v>
+        <v>0.6464706592402053</v>
       </c>
       <c r="Q6">
-        <v>262.4112651415102</v>
+        <v>2073.640159923507</v>
       </c>
       <c r="R6">
-        <v>262.4112651415102</v>
+        <v>18662.76143931156</v>
       </c>
       <c r="S6">
-        <v>0.1568368554317913</v>
+        <v>0.2522099987478987</v>
       </c>
       <c r="T6">
-        <v>0.1568368554317913</v>
+        <v>0.2522099987478987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.4777355430884</v>
+        <v>151.42276</v>
       </c>
       <c r="H7">
-        <v>71.4777355430884</v>
+        <v>454.26828</v>
       </c>
       <c r="I7">
-        <v>0.2106271286400358</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J7">
-        <v>0.2106271286400358</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.25912055477803</v>
+        <v>2.346919</v>
       </c>
       <c r="N7">
-        <v>1.25912055477803</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O7">
-        <v>0.255381505485804</v>
+        <v>0.1107910510156661</v>
       </c>
       <c r="P7">
-        <v>0.255381505485804</v>
+        <v>0.1107910510156661</v>
       </c>
       <c r="Q7">
-        <v>89.99908603129077</v>
+        <v>355.37695247644</v>
       </c>
       <c r="R7">
-        <v>89.99908603129077</v>
+        <v>3198.39257228796</v>
       </c>
       <c r="S7">
-        <v>0.05379027320824444</v>
+        <v>0.04322332411927306</v>
       </c>
       <c r="T7">
-        <v>0.05379027320824444</v>
+        <v>0.04322332411927306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>98.4486738732672</v>
+        <v>151.42276</v>
       </c>
       <c r="H8">
-        <v>98.4486738732672</v>
+        <v>454.26828</v>
       </c>
       <c r="I8">
-        <v>0.2901037832101644</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J8">
-        <v>0.2901037832101644</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.67123081261189</v>
+        <v>3.811587333333333</v>
       </c>
       <c r="N8">
-        <v>3.67123081261189</v>
+        <v>11.434762</v>
       </c>
       <c r="O8">
-        <v>0.744618494514196</v>
+        <v>0.17993367759944</v>
       </c>
       <c r="P8">
-        <v>0.744618494514196</v>
+        <v>0.17993367759944</v>
       </c>
       <c r="Q8">
-        <v>361.4278049843177</v>
+        <v>577.1610739943734</v>
       </c>
       <c r="R8">
-        <v>361.4278049843177</v>
+        <v>5194.44966594936</v>
       </c>
       <c r="S8">
-        <v>0.2160166423068253</v>
+        <v>0.07019819376705476</v>
       </c>
       <c r="T8">
-        <v>0.2160166423068253</v>
+        <v>0.07019819376705475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>98.4486738732672</v>
+        <v>151.42276</v>
       </c>
       <c r="H9">
-        <v>98.4486738732672</v>
+        <v>454.26828</v>
       </c>
       <c r="I9">
-        <v>0.2901037832101644</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J9">
-        <v>0.2901037832101644</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25912055477803</v>
+        <v>1.330408333333333</v>
       </c>
       <c r="N9">
-        <v>1.25912055477803</v>
+        <v>3.991225</v>
       </c>
       <c r="O9">
-        <v>0.255381505485804</v>
+        <v>0.06280461214468869</v>
       </c>
       <c r="P9">
-        <v>0.255381505485804</v>
+        <v>0.06280461214468869</v>
       </c>
       <c r="Q9">
-        <v>123.9587488644695</v>
+        <v>201.4541017603333</v>
       </c>
       <c r="R9">
-        <v>123.9587488644695</v>
+        <v>1813.086915843</v>
       </c>
       <c r="S9">
-        <v>0.07408714090333908</v>
+        <v>0.02450219654050631</v>
       </c>
       <c r="T9">
-        <v>0.07408714090333908</v>
+        <v>0.02450219654050631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>85.147481</v>
+      </c>
+      <c r="H10">
+        <v>255.442443</v>
+      </c>
+      <c r="I10">
+        <v>0.2193785328573129</v>
+      </c>
+      <c r="J10">
+        <v>0.2193785328573129</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>13.69437566666667</v>
+      </c>
+      <c r="N10">
+        <v>41.083127</v>
+      </c>
+      <c r="O10">
+        <v>0.6464706592402053</v>
+      </c>
+      <c r="P10">
+        <v>0.6464706592402053</v>
+      </c>
+      <c r="Q10">
+        <v>1166.041591884362</v>
+      </c>
+      <c r="R10">
+        <v>10494.37432695926</v>
+      </c>
+      <c r="S10">
+        <v>0.1418217847594161</v>
+      </c>
+      <c r="T10">
+        <v>0.1418217847594161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>85.147481</v>
+      </c>
+      <c r="H11">
+        <v>255.442443</v>
+      </c>
+      <c r="I11">
+        <v>0.2193785328573129</v>
+      </c>
+      <c r="J11">
+        <v>0.2193785328573129</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.346919</v>
+      </c>
+      <c r="N11">
+        <v>7.040756999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1107910510156661</v>
+      </c>
+      <c r="P11">
+        <v>0.1107910510156661</v>
+      </c>
+      <c r="Q11">
+        <v>199.834240961039</v>
+      </c>
+      <c r="R11">
+        <v>1798.508168649351</v>
+      </c>
+      <c r="S11">
+        <v>0.02430517822553653</v>
+      </c>
+      <c r="T11">
+        <v>0.02430517822553653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>85.147481</v>
+      </c>
+      <c r="H12">
+        <v>255.442443</v>
+      </c>
+      <c r="I12">
+        <v>0.2193785328573129</v>
+      </c>
+      <c r="J12">
+        <v>0.2193785328573129</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.811587333333333</v>
+      </c>
+      <c r="N12">
+        <v>11.434762</v>
+      </c>
+      <c r="O12">
+        <v>0.17993367759944</v>
+      </c>
+      <c r="P12">
+        <v>0.17993367759944</v>
+      </c>
+      <c r="Q12">
+        <v>324.5470600448406</v>
+      </c>
+      <c r="R12">
+        <v>2920.923540403566</v>
+      </c>
+      <c r="S12">
+        <v>0.03947358620338589</v>
+      </c>
+      <c r="T12">
+        <v>0.03947358620338588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>85.147481</v>
+      </c>
+      <c r="H13">
+        <v>255.442443</v>
+      </c>
+      <c r="I13">
+        <v>0.2193785328573129</v>
+      </c>
+      <c r="J13">
+        <v>0.2193785328573129</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.330408333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.991225</v>
+      </c>
+      <c r="O13">
+        <v>0.06280461214468869</v>
+      </c>
+      <c r="P13">
+        <v>0.06280461214468869</v>
+      </c>
+      <c r="Q13">
+        <v>113.2809182847417</v>
+      </c>
+      <c r="R13">
+        <v>1019.528264562675</v>
+      </c>
+      <c r="S13">
+        <v>0.01377798366897438</v>
+      </c>
+      <c r="T13">
+        <v>0.01377798366897438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>101.3126446666667</v>
+      </c>
+      <c r="H14">
+        <v>303.937934</v>
+      </c>
+      <c r="I14">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="J14">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>13.69437566666667</v>
+      </c>
+      <c r="N14">
+        <v>41.083127</v>
+      </c>
+      <c r="O14">
+        <v>0.6464706592402053</v>
+      </c>
+      <c r="P14">
+        <v>0.6464706592402053</v>
+      </c>
+      <c r="Q14">
+        <v>1387.413415848847</v>
+      </c>
+      <c r="R14">
+        <v>12486.72074263962</v>
+      </c>
+      <c r="S14">
+        <v>0.1687465080185192</v>
+      </c>
+      <c r="T14">
+        <v>0.1687465080185192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>101.3126446666667</v>
+      </c>
+      <c r="H15">
+        <v>303.937934</v>
+      </c>
+      <c r="I15">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="J15">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>2.346919</v>
+      </c>
+      <c r="N15">
+        <v>7.040756999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1107910510156661</v>
+      </c>
+      <c r="P15">
+        <v>0.1107910510156661</v>
+      </c>
+      <c r="Q15">
+        <v>237.7725707084487</v>
+      </c>
+      <c r="R15">
+        <v>2139.953136376038</v>
+      </c>
+      <c r="S15">
+        <v>0.028919491876968</v>
+      </c>
+      <c r="T15">
+        <v>0.028919491876968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>101.3126446666667</v>
+      </c>
+      <c r="H16">
+        <v>303.937934</v>
+      </c>
+      <c r="I16">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="J16">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.811587333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.434762</v>
+      </c>
+      <c r="O16">
+        <v>0.17993367759944</v>
+      </c>
+      <c r="P16">
+        <v>0.17993367759944</v>
+      </c>
+      <c r="Q16">
+        <v>386.1619931179676</v>
+      </c>
+      <c r="R16">
+        <v>3475.457938061708</v>
+      </c>
+      <c r="S16">
+        <v>0.0469676068601803</v>
+      </c>
+      <c r="T16">
+        <v>0.04696760686018028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>101.3126446666667</v>
+      </c>
+      <c r="H17">
+        <v>303.937934</v>
+      </c>
+      <c r="I17">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="J17">
+        <v>0.2610273267727979</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.330408333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.991225</v>
+      </c>
+      <c r="O17">
+        <v>0.06280461214468869</v>
+      </c>
+      <c r="P17">
+        <v>0.06280461214468869</v>
+      </c>
+      <c r="Q17">
+        <v>134.7871867365722</v>
+      </c>
+      <c r="R17">
+        <v>1213.08468062915</v>
+      </c>
+      <c r="S17">
+        <v>0.01639372001713049</v>
+      </c>
+      <c r="T17">
+        <v>0.01639372001713049</v>
       </c>
     </row>
   </sheetData>
